--- a/downloaded_files/AERS436_Lecture-35779.xlsx
+++ b/downloaded_files/AERS436_Lecture-35779.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Abdallah Akram</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن هانى توفيق محمد حبيش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Hany Tawfik Mohamed Hebish</x:t>
   </x:si>
   <x:si>
     <x:t>1230078</x:t>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +554,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -555,7 +564,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.040625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="41.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -764,7 +773,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.5226064815</x:v>
+        <x:v>45929.5772565162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -796,7 +805,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.5045016204</x:v>
+        <x:v>45907.5226064815</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -828,7 +837,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45907.5045016204</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -860,7 +869,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.417221956</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -892,7 +901,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.417221956</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -924,7 +933,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -956,7 +965,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +982,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS436_Lecture-35779.xlsx
+++ b/downloaded_files/AERS436_Lecture-35779.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Marwan Sameh Mohamed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230121</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نغم رءوف عزت السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nagham Raouf</x:t>
   </x:si>
   <x:si>
     <x:t>1220089</x:t>
@@ -254,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -554,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T13"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -997,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45930.3307383912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1014,6 +1023,38 @@
       <x:c r="R13" s="2" t="s"/>
       <x:c r="S13" s="2" t="s"/>
       <x:c r="T13" s="2" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:20">
+      <x:c r="A14" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E14" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s"/>
+      <x:c r="G14" s="2" t="s"/>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s"/>
+      <x:c r="J14" s="2" t="s"/>
+      <x:c r="K14" s="2" t="s"/>
+      <x:c r="L14" s="2" t="s"/>
+      <x:c r="M14" s="2" t="s"/>
+      <x:c r="N14" s="2" t="s"/>
+      <x:c r="O14" s="2" t="s"/>
+      <x:c r="P14" s="2" t="s"/>
+      <x:c r="Q14" s="2" t="s"/>
+      <x:c r="R14" s="2" t="s"/>
+      <x:c r="S14" s="2" t="s"/>
+      <x:c r="T14" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS436_Lecture-35779.xlsx
+++ b/downloaded_files/AERS436_Lecture-35779.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230147</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">رنا محمد رفاعى محمد رفاعى </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rana Mohamed Refaay Mohamed Refaay</x:t>
   </x:si>
   <x:si>
     <x:t>1230048</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -718,7 +727,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45932.5106782407</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -750,7 +759,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4242873032</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -782,7 +791,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45929.5772565162</x:v>
+        <x:v>45907.4242873032</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -814,7 +823,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.5226064815</x:v>
+        <x:v>45929.5772565162</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -846,7 +855,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.5045016204</x:v>
+        <x:v>45907.5226064815</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -878,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45907.5045016204</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.417221956</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.417221956</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45930.3307383912</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45930.3307383912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS436_Lecture-35779.xlsx
+++ b/downloaded_files/AERS436_Lecture-35779.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Basmalla Khaled Abdel Fattah Mohamed Galal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200332</x:t>
+  </x:si>
+  <x:si>
+    <x:t>خالد اسامه صبحى على حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>khalled usama sobhy ali hussien</x:t>
   </x:si>
   <x:si>
     <x:t>4230147</x:t>
@@ -272,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -727,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45932.5106782407</x:v>
+        <x:v>45936.5819752315</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -759,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45932.5106782407</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -791,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4242873032</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -823,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45929.5772565162</x:v>
+        <x:v>45907.4242873032</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -855,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.5226064815</x:v>
+        <x:v>45929.5772565162</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -887,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.5045016204</x:v>
+        <x:v>45907.5226064815</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4144429745</x:v>
+        <x:v>45907.5045016204</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.417221956</x:v>
+        <x:v>45907.4144429745</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.417221956</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45930.3307383912</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1079,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45930.3307383912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1096,6 +1105,38 @@
       <x:c r="R15" s="2" t="s"/>
       <x:c r="S15" s="2" t="s"/>
       <x:c r="T15" s="2" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:20">
+      <x:c r="A16" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E16" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s"/>
+      <x:c r="G16" s="2" t="s"/>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s"/>
+      <x:c r="J16" s="2" t="s"/>
+      <x:c r="K16" s="2" t="s"/>
+      <x:c r="L16" s="2" t="s"/>
+      <x:c r="M16" s="2" t="s"/>
+      <x:c r="N16" s="2" t="s"/>
+      <x:c r="O16" s="2" t="s"/>
+      <x:c r="P16" s="2" t="s"/>
+      <x:c r="Q16" s="2" t="s"/>
+      <x:c r="R16" s="2" t="s"/>
+      <x:c r="S16" s="2" t="s"/>
+      <x:c r="T16" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AERS436_Lecture-35779.xlsx
+++ b/downloaded_files/AERS436_Lecture-35779.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Maya Ahmed Reda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250464</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد نجم عواد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4240049</x:t>
@@ -281,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -581,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T16"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1024,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45945.4025726042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45930.3307383912</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1120,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45930.3307383912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1137,6 +1146,38 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:20">
+      <x:c r="A17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E17" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s"/>
+      <x:c r="G17" s="2" t="s"/>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s"/>
+      <x:c r="J17" s="2" t="s"/>
+      <x:c r="K17" s="2" t="s"/>
+      <x:c r="L17" s="2" t="s"/>
+      <x:c r="M17" s="2" t="s"/>
+      <x:c r="N17" s="2" t="s"/>
+      <x:c r="O17" s="2" t="s"/>
+      <x:c r="P17" s="2" t="s"/>
+      <x:c r="Q17" s="2" t="s"/>
+      <x:c r="R17" s="2" t="s"/>
+      <x:c r="S17" s="2" t="s"/>
+      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
